--- a/Livrables/listing_page.xlsx
+++ b/Livrables/listing_page.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brobert\Documents\eXia\A3\Projet\BooXstore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brobert\Documents\GitHub\booXstore\Livrables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -165,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +187,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,28 +224,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,7 +537,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,261 +567,261 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>4</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>4</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Livrables/listing_page.xlsx
+++ b/Livrables/listing_page.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brobert\Documents\GitHub\booXstore\Livrables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyril\Documents\booXstore\Livrables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>Nom page</t>
   </si>
@@ -150,13 +150,25 @@
   </si>
   <si>
     <t>Lancement processus commande / Modification article(s)</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Etape</t>
+  </si>
+  <si>
+    <t>JSF</t>
+  </si>
+  <si>
+    <t>Fonctionnel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +176,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +229,27 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -221,10 +275,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -237,9 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -254,9 +308,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,10 +613,11 @@
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="69.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,21 +630,29 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
@@ -584,10 +660,19 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="E3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2">
@@ -595,11 +680,20 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -608,12 +702,21 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -621,21 +724,33 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -643,12 +758,21 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -656,12 +780,21 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -669,12 +802,21 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
@@ -682,12 +824,21 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2">
@@ -695,12 +846,21 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2">
@@ -708,12 +868,21 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2">
@@ -721,21 +890,33 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="2">
@@ -743,12 +924,21 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2">
@@ -756,12 +946,21 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="2">
@@ -769,12 +968,21 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="2">
@@ -782,12 +990,21 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="2">
@@ -795,12 +1012,21 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="2">
@@ -808,11 +1034,20 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
@@ -821,15 +1056,21 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A7:E7"/>
+  <mergeCells count="4">
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Livrables/listing_page.xlsx
+++ b/Livrables/listing_page.xlsx
@@ -604,7 +604,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Livrables/listing_page.xlsx
+++ b/Livrables/listing_page.xlsx
@@ -308,13 +308,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,7 +604,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,16 +640,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -660,13 +660,13 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="E3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="2"/>
@@ -680,13 +680,13 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -705,10 +705,10 @@
       <c r="E5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -724,13 +724,13 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -738,16 +738,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -758,13 +758,13 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -780,13 +780,13 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="E9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -802,13 +802,13 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="E10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -827,10 +827,10 @@
       <c r="E11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -846,13 +846,13 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="E12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -868,13 +868,13 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="E13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -890,13 +890,13 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="E14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -904,16 +904,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -924,13 +924,13 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="E16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -949,10 +949,10 @@
       <c r="E17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -971,10 +971,10 @@
       <c r="E18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -993,10 +993,10 @@
       <c r="E19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="16" t="s">
+      <c r="F19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -1015,10 +1015,10 @@
       <c r="E20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -1037,10 +1037,10 @@
       <c r="E21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="F21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1056,9 +1056,9 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H22" s="2" t="s">

--- a/Livrables/listing_page.xlsx
+++ b/Livrables/listing_page.xlsx
@@ -604,7 +604,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
       <c r="E3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -683,7 +683,7 @@
       <c r="E4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -705,7 +705,7 @@
       <c r="E5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="15" t="s">
@@ -727,7 +727,7 @@
       <c r="E6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="15" t="s">
@@ -761,7 +761,7 @@
       <c r="E8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="15" t="s">
@@ -783,7 +783,7 @@
       <c r="E9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="15" t="s">
@@ -805,7 +805,7 @@
       <c r="E10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="15" t="s">
@@ -827,7 +827,7 @@
       <c r="E11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="15" t="s">
@@ -871,7 +871,7 @@
       <c r="E13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="15" t="s">
@@ -893,7 +893,7 @@
       <c r="E14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -949,7 +949,7 @@
       <c r="E17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G17" s="15" t="s">
@@ -971,7 +971,7 @@
       <c r="E18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -993,7 +993,7 @@
       <c r="E19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="15" t="s">
@@ -1015,7 +1015,7 @@
       <c r="E20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="15" t="s">
@@ -1037,7 +1037,7 @@
       <c r="E21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G21" s="15" t="s">

--- a/Livrables/listing_page.xlsx
+++ b/Livrables/listing_page.xlsx
@@ -604,7 +604,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +927,7 @@
       <c r="E16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="15" t="s">

--- a/Livrables/listing_page.xlsx
+++ b/Livrables/listing_page.xlsx
@@ -604,7 +604,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,7 @@
       <c r="E4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -705,7 +705,7 @@
       <c r="E5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="15" t="s">
@@ -849,7 +849,7 @@
       <c r="E12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="15" t="s">
@@ -949,7 +949,7 @@
       <c r="E17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G17" s="15" t="s">
@@ -971,7 +971,7 @@
       <c r="E18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -993,7 +993,7 @@
       <c r="E19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="15" t="s">
@@ -1015,7 +1015,7 @@
       <c r="E20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="15" t="s">
@@ -1037,7 +1037,7 @@
       <c r="E21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G21" s="15" t="s">
@@ -1057,7 +1057,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="15" t="s">
         <v>45</v>
       </c>
